--- a/res/page/系统管理/RolePage.xlsx
+++ b/res/page/系统管理/RolePage.xlsx
@@ -123,9 +123,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,30 +150,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,36 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -235,15 +273,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,37 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,12 +302,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,18 +338,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,31 +392,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,6 +452,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,97 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +537,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,7 +578,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,30 +600,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -616,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/系统管理/RolePage.xlsx
+++ b/res/page/系统管理/RolePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950"/>
+    <workbookView windowWidth="21600" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>别名</t>
   </si>
@@ -27,19 +27,19 @@
     <t>定位值</t>
   </si>
   <si>
-    <t>系统管理</t>
+    <t>账号管理</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>//div[@id='menu_box']//a[contains(text(), "系统管理")]</t>
+    <t>//nav[@class='menu-box']//a[contains(text(), "账号管理")]</t>
   </si>
   <si>
     <t>角色管理</t>
   </si>
   <si>
-    <t>//li/a[@id='2200']</t>
+    <t>//ul[@role='menubar']//span[contains(text(),'角色管理')]</t>
   </si>
   <si>
     <t>新增角色</t>
@@ -48,16 +48,40 @@
     <t>//*[@id="app"]//a[contains(text(), "新增角色")]</t>
   </si>
   <si>
+    <t>创建角色</t>
+  </si>
+  <si>
+    <t>//div[@class='top-tab-box']//span[contains(text(),'创建角色')]</t>
+  </si>
+  <si>
     <t>角色名称</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'角色名称')]/following-sibling::*[1]//input</t>
+    <t>//*[@id="app"]//div[@role='dialog']//label[contains(text(),'角色名称')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'描述')]/following-sibling::*[1]//textarea</t>
+    <t>//*[@id="app"]//div[@role='dialog']//label[contains(text(),'描述')]/following-sibling::*[1]//textarea</t>
+  </si>
+  <si>
+    <t>设置权限列</t>
+  </si>
+  <si>
+    <t>//div[@class='top-tab-box']//span[contains(text(),'设置权限')]</t>
+  </si>
+  <si>
+    <t>权限表列</t>
+  </si>
+  <si>
+    <t>//ul[@id='privilegeTree']</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>//div[@class='el-dialog__footer']//span[text()='完成']</t>
   </si>
   <si>
     <t>确认</t>
@@ -69,25 +93,19 @@
     <t>编辑</t>
   </si>
   <si>
-    <t>//*[@id="authzRoleTable"]//div[@class='el-table__fixed-right']//i[@class='el-icon-edit']</t>
+    <t>//*[@id="authzRoleTable"]//div[@class='el-table__fixed-right']//i[@class='icon-edit']</t>
   </si>
   <si>
     <t>设置权限</t>
   </si>
   <si>
-    <t>//*[@id="authzRoleTable"]//div[@class='el-table__fixed-right']//i[@class='el-icon-setting']</t>
-  </si>
-  <si>
-    <t>权限勾选框</t>
-  </si>
-  <si>
-    <t>//ul[@id='privilegeTree']</t>
+    <t>//*[@id="authzRoleTable"]//div[@class='el-table__fixed-right']//i[@class='icon-authority']</t>
   </si>
   <si>
     <t>删除</t>
   </si>
   <si>
-    <t>//*[@id="authzRoleTable"]//div[@class='el-table__fixed-right']//i[@class='el-icon-delete']</t>
+    <t>//*[@id="authzRoleTable"]//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
   </si>
   <si>
     <t>删除-确认</t>
@@ -108,13 +126,19 @@
     <t>搜索按钮</t>
   </si>
   <si>
-    <t>//div[@class='form-group search-group']</t>
+    <t>//i[@class='ion-ios-search-strong']</t>
   </si>
   <si>
     <t>操作成功-提示</t>
   </si>
   <si>
     <t>//div[@class='toast-wrapper']</t>
+  </si>
+  <si>
+    <t>修改-角色名称</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[contains(text(),'角色名称')]/following-sibling::*[1]//input</t>
   </si>
 </sst>
 </file>
@@ -124,8 +148,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,40 +182,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -193,39 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,9 +249,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +281,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -265,23 +298,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,19 +326,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,79 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,79 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,11 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +585,35 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,41 +632,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,137 +652,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +791,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -840,7 +867,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1119,17 +1146,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="114.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:3">
@@ -1194,7 +1221,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1261,40 +1288,40 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="29" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="29" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="29" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:3">
@@ -1306,6 +1333,50 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="29" customHeight="1" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="29" customHeight="1" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="29" customHeight="1" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
